--- a/flows/VWOB_fund_flow_data.xlsx
+++ b/flows/VWOB_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2709"/>
+  <dimension ref="A1:B2721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27525,6 +27525,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2710" t="n">
+        <v>-50.175648</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2713" t="n">
+        <v>-12.564</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2718" t="n">
+        <v>12.654</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2721" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
